--- a/Lab1/src/Lab1CS3345.xlsx
+++ b/Lab1/src/Lab1CS3345.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Algorithms\lab1\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585E4A51-4B0E-4373-B78B-08A16665FE4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F70870-A8CA-4D02-8796-4BFEA95A993D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{43BB642D-01A2-4FD6-9C5A-BDA3B82FE5E3}"/>
   </bookViews>
@@ -617,456 +617,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Reverse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$C$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Bubble</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Insertion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Merge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$7:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>117954.79700000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42237156</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19714214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B341-4ADB-86FC-67CD49019718}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="521672184"/>
-        <c:axId val="521670584"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="521672184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="521670584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="521670584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="521672184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$A$9:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -1462,7 +1012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1912,6 +1462,456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>117954797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42237156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19714214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6186-4A68-BB3E-AE6219E39A1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="528053624"/>
+        <c:axId val="528055544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="528053624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528055544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="528055544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528053624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4176,42 +4176,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>240506</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>64293</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF8FE26-1A3D-4F8E-9ED5-CB59DB0A5F78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>26193</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -4240,7 +4204,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4265,6 +4229,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2A200C-3260-4324-B750-B5D1FF69BA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97630</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D5783F-93F2-4C4A-BDBD-B8C18D9C0E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,8 +4584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E9E06-4F21-415E-B1D8-0401E1FEE3B1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4642,7 +4642,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>117954.79700000001</v>
+        <v>117954797</v>
       </c>
       <c r="D7">
         <v>42237156</v>
